--- a/code/paleo_flow/data/sites_monthly.xlsx
+++ b/code/paleo_flow/data/sites_monthly.xlsx
@@ -57,61 +57,61 @@
     <t>Utah, USA</t>
   </si>
   <si>
+    <t>Bear River, Utah 350 Year Monthly Streamflow Reconstruction</t>
+  </si>
+  <si>
+    <t>Stagge, J.H.; Rosenberg, D.E.; DeRose, R.J.; Rittenour, T.M.</t>
+  </si>
+  <si>
+    <t>Stagge, J.H., Rosenberg, D.E., DeRose, R.J., Rittenour, T.M. (2017). Monthly paleostreamflow reconstruction from annual tree-ring chronologies. Journal of Hydrology, In Review.</t>
+  </si>
+  <si>
+    <t>https://github.com/jstagge/monthly_paleo</t>
+  </si>
+  <si>
+    <t>USGS 10011500</t>
+  </si>
+  <si>
+    <t>USGS</t>
+  </si>
+  <si>
+    <t>https://waterdata.usgs.gov/nwis/uv?site_no=10011500</t>
+  </si>
+  <si>
+    <t>flow_10011500</t>
+  </si>
+  <si>
+    <t>Logan River, Utah 350 Year Monthly Streamflow Reconstruction</t>
+  </si>
+  <si>
+    <t>USGS 10109001</t>
+  </si>
+  <si>
+    <t>https://waterdata.usgs.gov/nwis/dv?referred_module=sw&amp;site_no=10109001</t>
+  </si>
+  <si>
+    <t>flow_10109001</t>
+  </si>
+  <si>
+    <t>Weber River, Utah 576 Year Monthly Streamflow Reconstruction</t>
+  </si>
+  <si>
+    <t>USGS 10128500</t>
+  </si>
+  <si>
+    <t>https://waterdata.usgs.gov/nwis/uv?site_no=10128500</t>
+  </si>
+  <si>
+    <t>flow_10128500</t>
+  </si>
+  <si>
     <t>Bear River near Utah-Wyo</t>
   </si>
   <si>
-    <t>Bear River, Utah 350 Year Monthly Streamflow Reconstruction</t>
-  </si>
-  <si>
-    <t>Stagge, J.H.; Rosenberg, D.E.; DeRose, R.J.; Rittenour, T.M.</t>
-  </si>
-  <si>
-    <t>Stagge, J.H., Rosenberg, D.E., DeRose, R.J., Rittenour, T.M. (2017). Monthly paleostreamflow reconstruction from annual tree-ring chronologies. Journal of Hydrology, In Review.</t>
-  </si>
-  <si>
-    <t>https://github.com/jstagge/monthly_paleo</t>
-  </si>
-  <si>
-    <t>USGS 10011500</t>
-  </si>
-  <si>
-    <t>USGS</t>
-  </si>
-  <si>
-    <t>https://waterdata.usgs.gov/nwis/uv?site_no=10011500</t>
-  </si>
-  <si>
-    <t>flow_10011500</t>
-  </si>
-  <si>
-    <t>Logan River</t>
-  </si>
-  <si>
-    <t>Logan River, Utah 350 Year Monthly Streamflow Reconstruction</t>
-  </si>
-  <si>
-    <t>USGS 10109001</t>
-  </si>
-  <si>
-    <t>https://waterdata.usgs.gov/nwis/dv?referred_module=sw&amp;site_no=10109001</t>
-  </si>
-  <si>
-    <t>flow_10109001</t>
-  </si>
-  <si>
-    <t>Weber River</t>
-  </si>
-  <si>
-    <t>Weber River, Utah 576 Year Monthly Streamflow Reconstruction</t>
-  </si>
-  <si>
-    <t>USGS 10128500</t>
-  </si>
-  <si>
-    <t>https://waterdata.usgs.gov/nwis/uv?site_no=10128500</t>
-  </si>
-  <si>
-    <t>flow_10128500</t>
+    <t>Logan River at State Dam</t>
+  </si>
+  <si>
+    <t>Weber River at Oakley</t>
   </si>
 </sst>
 </file>
@@ -445,7 +445,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -507,31 +507,31 @@
         <v>10011500</v>
       </c>
       <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" t="s">
         <v>19</v>
-      </c>
-      <c r="K2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -542,31 +542,31 @@
         <v>10109001</v>
       </c>
       <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" t="s">
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="K3" t="s">
         <v>23</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -577,31 +577,31 @@
         <v>10128500</v>
       </c>
       <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
+      <c r="K4" t="s">
         <v>27</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/code/paleo_flow/data/sites_monthly.xlsx
+++ b/code/paleo_flow/data/sites_monthly.xlsx
@@ -54,9 +54,6 @@
     <t>file_name</t>
   </si>
   <si>
-    <t>Utah, USA</t>
-  </si>
-  <si>
     <t>Bear River, Utah 350 Year Monthly Streamflow Reconstruction</t>
   </si>
   <si>
@@ -112,6 +109,9 @@
   </si>
   <si>
     <t>Weber River at Oakley</t>
+  </si>
+  <si>
+    <t>USA, UT</t>
   </si>
 </sst>
 </file>
@@ -445,7 +445,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -501,107 +501,107 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B2">
         <v>10011500</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" t="s">
         <v>18</v>
-      </c>
-      <c r="K2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B3">
         <v>10109001</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
         <v>21</v>
       </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>22</v>
-      </c>
-      <c r="K3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B4">
         <v>10128500</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
         <v>25</v>
       </c>
-      <c r="I4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>26</v>
-      </c>
-      <c r="K4" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/code/paleo_flow/data/sites_monthly.xlsx
+++ b/code/paleo_flow/data/sites_monthly.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-1140" yWindow="390" windowWidth="19035" windowHeight="5400" tabRatio="500"/>
+    <workbookView xWindow="1245" yWindow="915" windowWidth="19035" windowHeight="5400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="sites_monthly" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="84">
   <si>
     <t>site_group</t>
   </si>
@@ -115,15 +115,178 @@
   </si>
   <si>
     <t>lon</t>
+  </si>
+  <si>
+    <t>https://crudata.uea.ac.uk/cru/data/riverflow/</t>
+  </si>
+  <si>
+    <t>Dee</t>
+  </si>
+  <si>
+    <t>Der</t>
+  </si>
+  <si>
+    <t>Ed1</t>
+  </si>
+  <si>
+    <t>Ed2</t>
+  </si>
+  <si>
+    <t>Exe</t>
+  </si>
+  <si>
+    <t>Ich</t>
+  </si>
+  <si>
+    <t>Med</t>
+  </si>
+  <si>
+    <t>Ous</t>
+  </si>
+  <si>
+    <t>Tee</t>
+  </si>
+  <si>
+    <t>Tef</t>
+  </si>
+  <si>
+    <t>Thm</t>
+  </si>
+  <si>
+    <t>Tyn</t>
+  </si>
+  <si>
+    <t>Whf</t>
+  </si>
+  <si>
+    <t>Wns</t>
+  </si>
+  <si>
+    <t>Wye</t>
+  </si>
+  <si>
+    <t>Dee at Manley Hall</t>
+  </si>
+  <si>
+    <t>Derwent at Longbridge Weir</t>
+  </si>
+  <si>
+    <t>Eden at Temple Sowerby</t>
+  </si>
+  <si>
+    <t>Eden at Warwick Bridge</t>
+  </si>
+  <si>
+    <t>Exe at Thorverton</t>
+  </si>
+  <si>
+    <t>Itchen at Highbridge &amp; Allbrook Total</t>
+  </si>
+  <si>
+    <t>Medway at Teston / East Farleigh</t>
+  </si>
+  <si>
+    <t>Ely Ouse at Denver Complex</t>
+  </si>
+  <si>
+    <t>Tees at Broken Scar</t>
+  </si>
+  <si>
+    <t>Teifi at Glanteifi</t>
+  </si>
+  <si>
+    <t>Thames at Eynsham</t>
+  </si>
+  <si>
+    <t>Tyne at Bywell</t>
+  </si>
+  <si>
+    <t>Wharfe at Addingham</t>
+  </si>
+  <si>
+    <t>Wensum at Costessey Mill</t>
+  </si>
+  <si>
+    <t>Wye at Redbrook</t>
+  </si>
+  <si>
+    <t>UK, Wales</t>
+  </si>
+  <si>
+    <t>UK, England</t>
+  </si>
+  <si>
+    <t>http://nrfa.ceh.ac.uk/data/station/meanflow/76005</t>
+  </si>
+  <si>
+    <t>NRFA</t>
+  </si>
+  <si>
+    <t>http://nrfa.ceh.ac.uk/data/station/meanflow/67015</t>
+  </si>
+  <si>
+    <t>http://nrfa.ceh.ac.uk/data/station/meanflow/28010</t>
+  </si>
+  <si>
+    <t>http://nrfa.ceh.ac.uk/data/station/meanflow/76002</t>
+  </si>
+  <si>
+    <t>http://nrfa.ceh.ac.uk/data/station/meanflow/45001</t>
+  </si>
+  <si>
+    <t>http://nrfa.ceh.ac.uk/data/station/meanflow/42010</t>
+  </si>
+  <si>
+    <t>http://nrfa.ceh.ac.uk/data/station/meanflow/40003</t>
+  </si>
+  <si>
+    <t>http://nrfa.ceh.ac.uk/data/station/meanflow/33035</t>
+  </si>
+  <si>
+    <t>http://nrfa.ceh.ac.uk/data/station/meanflow/25001</t>
+  </si>
+  <si>
+    <t>http://nrfa.ceh.ac.uk/data/station/meanflow/62001</t>
+  </si>
+  <si>
+    <t>http://nrfa.ceh.ac.uk/data/station/meanflow/39008</t>
+  </si>
+  <si>
+    <t>http://nrfa.ceh.ac.uk/data/station/meanflow/23001</t>
+  </si>
+  <si>
+    <t>http://nrfa.ceh.ac.uk/data/station/meanflow/27043</t>
+  </si>
+  <si>
+    <t>http://nrfa.ceh.ac.uk/data/station/meanflow/34004</t>
+  </si>
+  <si>
+    <t>http://nrfa.ceh.ac.uk/data/station/meanflow/55023</t>
+  </si>
+  <si>
+    <t>Jones, P.D., Lister, D.H. and Kostopoulou, E. (2004) Reconstructed river flow series from 1860s to present. Environment Agency, Science Report SC040052/SR</t>
+  </si>
+  <si>
+    <t>Jones, P.D.; Lister, D.H.; Kostopoulou, E</t>
+  </si>
+  <si>
+    <t>Reconstructed river flow series from 1860s to present</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -145,14 +308,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -445,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -617,9 +786,594 @@
         <v>-111.24722199999999</v>
       </c>
     </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5">
+        <v>67015</v>
+      </c>
+      <c r="H5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5">
+        <v>52.965979842645098</v>
+      </c>
+      <c r="L5">
+        <v>-2.9722026279979201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6">
+        <v>28010</v>
+      </c>
+      <c r="H6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6">
+        <v>52.922940138860099</v>
+      </c>
+      <c r="L6">
+        <v>-1.47193235971831</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7">
+        <v>76005</v>
+      </c>
+      <c r="H7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7">
+        <v>54.648239815803898</v>
+      </c>
+      <c r="L7">
+        <v>-2.6152002501106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8">
+        <v>76002</v>
+      </c>
+      <c r="H8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8">
+        <v>54.902196645223299</v>
+      </c>
+      <c r="L8">
+        <v>-2.8280369197813702</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9">
+        <v>45001</v>
+      </c>
+      <c r="H9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9">
+        <v>50.804155674321997</v>
+      </c>
+      <c r="L9">
+        <v>-3.5113367046687798</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10">
+        <v>42010</v>
+      </c>
+      <c r="H10" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K10">
+        <v>50.987463313004902</v>
+      </c>
+      <c r="L10">
+        <v>-1.34458732112236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11">
+        <v>40003</v>
+      </c>
+      <c r="H11" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11">
+        <v>51.250592546975902</v>
+      </c>
+      <c r="L11">
+        <v>0.44601429486114302</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12">
+        <v>33035</v>
+      </c>
+      <c r="H12" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J12" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12">
+        <v>52.5836477745504</v>
+      </c>
+      <c r="L12">
+        <v>0.34095963929556</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13">
+        <v>25001</v>
+      </c>
+      <c r="H13" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J13" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13">
+        <v>54.517940482595698</v>
+      </c>
+      <c r="L13">
+        <v>-1.6014185404075201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14">
+        <v>62001</v>
+      </c>
+      <c r="H14" t="s">
+        <v>66</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J14" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14">
+        <v>52.044905408831902</v>
+      </c>
+      <c r="L14">
+        <v>-4.56198896873524</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15">
+        <v>39008</v>
+      </c>
+      <c r="H15" t="s">
+        <v>66</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J15" t="s">
+        <v>43</v>
+      </c>
+      <c r="K15">
+        <v>51.775216274127402</v>
+      </c>
+      <c r="L15">
+        <v>-1.3578823798028401</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16">
+        <v>23001</v>
+      </c>
+      <c r="H16" t="s">
+        <v>66</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J16" t="s">
+        <v>44</v>
+      </c>
+      <c r="K16">
+        <v>54.949937187129997</v>
+      </c>
+      <c r="L16">
+        <v>-1.9422021101550599</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17">
+        <v>27043</v>
+      </c>
+      <c r="H17" t="s">
+        <v>66</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J17" t="s">
+        <v>45</v>
+      </c>
+      <c r="K17">
+        <v>53.938837120546502</v>
+      </c>
+      <c r="L17">
+        <v>-1.8628679879874701</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18">
+        <v>34004</v>
+      </c>
+      <c r="H18" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J18" t="s">
+        <v>46</v>
+      </c>
+      <c r="K18">
+        <v>52.668306246612097</v>
+      </c>
+      <c r="L18">
+        <v>1.21672903240969</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19">
+        <v>55023</v>
+      </c>
+      <c r="H19" t="s">
+        <v>66</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J19" t="s">
+        <v>47</v>
+      </c>
+      <c r="K19">
+        <v>51.795637729590901</v>
+      </c>
+      <c r="L19">
+        <v>-2.68726445143187</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I4" r:id="rId1"/>
+    <hyperlink ref="I5" r:id="rId2"/>
+    <hyperlink ref="I6" r:id="rId3"/>
+    <hyperlink ref="I7" r:id="rId4"/>
+    <hyperlink ref="I8" r:id="rId5"/>
+    <hyperlink ref="I9" r:id="rId6"/>
+    <hyperlink ref="I10" r:id="rId7"/>
+    <hyperlink ref="I11" r:id="rId8"/>
+    <hyperlink ref="I12" r:id="rId9"/>
+    <hyperlink ref="I13" r:id="rId10"/>
+    <hyperlink ref="I14" r:id="rId11"/>
+    <hyperlink ref="I15" r:id="rId12"/>
+    <hyperlink ref="I16" r:id="rId13"/>
+    <hyperlink ref="I17" r:id="rId14"/>
+    <hyperlink ref="I18" r:id="rId15"/>
+    <hyperlink ref="I19" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/code/paleo_flow/data/sites_monthly.xlsx
+++ b/code/paleo_flow/data/sites_monthly.xlsx
@@ -54,12 +54,6 @@
     <t>Stagge, J.H.; Rosenberg, D.E.; DeRose, R.J.; Rittenour, T.M.</t>
   </si>
   <si>
-    <t>Stagge, J.H., Rosenberg, D.E., DeRose, R.J., Rittenour, T.M. (2017). Monthly paleostreamflow reconstruction from annual tree-ring chronologies. Journal of Hydrology, In Review.</t>
-  </si>
-  <si>
-    <t>https://github.com/jstagge/monthly_paleo</t>
-  </si>
-  <si>
     <t>USGS 10011500</t>
   </si>
   <si>
@@ -115,6 +109,12 @@
   </si>
   <si>
     <t>lon</t>
+  </si>
+  <si>
+    <t>Stagge, J.H., Rosenberg, D.E., DeRose, R.J., Rittenour, T.M. (2018). Monthly paleostreamflow reconstruction from annual tree-ring chronologies. Journal of Hydrology, 557, 791-804</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0022169417308855</t>
   </si>
 </sst>
 </file>
@@ -447,8 +447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD19"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -494,21 +494,21 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -517,22 +517,22 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="J2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K2">
         <v>40.965277999999998</v>
@@ -543,34 +543,34 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K3">
         <v>41.744444000000001</v>
@@ -581,34 +581,34 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
         <v>12</v>
       </c>
-      <c r="G4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
       <c r="I4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K4">
         <v>40.737222000000003</v>

--- a/code/paleo_flow/data/sites_monthly.xlsx
+++ b/code/paleo_flow/data/sites_monthly.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stagge.11\Documents\Dropbox\work_folder\projects_research\code\paleo_flow_shiny\code\paleo_flow\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="1245" yWindow="900" windowWidth="19035" windowHeight="5400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="sites_monthly" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -120,8 +125,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -157,6 +162,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -203,7 +216,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -235,9 +248,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -269,6 +283,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -444,14 +459,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.85546875" customWidth="1"/>
     <col min="2" max="2" width="22.42578125" customWidth="1"/>
@@ -465,7 +480,7 @@
     <col min="10" max="1023" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -503,53 +518,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2">
-        <v>40.965277999999998</v>
-      </c>
-      <c r="L2">
-        <v>-110.852778</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -561,33 +538,33 @@
         <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H3" t="s">
         <v>12</v>
       </c>
-      <c r="I3" t="s">
-        <v>16</v>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K3">
-        <v>41.744444000000001</v>
+        <v>40.965277999999998</v>
       </c>
       <c r="L3">
-        <v>-111.78361099999999</v>
+        <v>-110.852778</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -599,27 +576,65 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
         <v>12</v>
       </c>
       <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4">
+        <v>41.744444000000001</v>
+      </c>
+      <c r="L4">
+        <v>-111.78361099999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" t="s">
         <v>19</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J5" t="s">
         <v>27</v>
       </c>
-      <c r="K4">
+      <c r="K5">
         <v>40.737222000000003</v>
       </c>
-      <c r="L4">
+      <c r="L5">
         <v>-111.24722199999999</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I4" r:id="rId1"/>
+    <hyperlink ref="I5" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/code/paleo_flow/data/sites_monthly.xlsx
+++ b/code/paleo_flow/data/sites_monthly.xlsx
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
+  <si>
+    <t xml:space="preserve">orig_order</t>
+  </si>
   <si>
     <t xml:space="preserve">site_group</t>
   </si>
@@ -56,6 +59,36 @@
   </si>
   <si>
     <t xml:space="preserve">lon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adjustment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reported_cal_r2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reported_val_re</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reported_cal_see</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reported_val_rmse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reported_val_press</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reported_units</t>
+  </si>
+  <si>
+    <t xml:space="preserve">val_method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">notes</t>
   </si>
   <si>
     <t xml:space="preserve">USA, UT</t>
@@ -227,27 +260,27 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L1048576"/>
+  <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="52.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="50.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="144.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="34.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="62.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="9.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="52.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="50.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="144.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="34.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="62.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="8.68"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -284,125 +317,166 @@
       <c r="L1" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="0" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>12</v>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="0" t="n">
         <v>40.965278</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="M2" s="0" t="n">
         <v>-110.852778</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>12</v>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>41.744444</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>-111.783611</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="0" t="s">
+      <c r="C4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="0" t="n">
-        <v>41.744444</v>
-      </c>
-      <c r="L3" s="0" t="n">
-        <v>-111.783611</v>
+      <c r="F4" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>40.737222</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>-111.247222</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>40.737222</v>
-      </c>
-      <c r="L4" s="0" t="n">
-        <v>-111.247222</v>
-      </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I4" r:id="rId1" display="https://waterdata.usgs.gov/nwis/uv?site_no=10128500"/>
+    <hyperlink ref="J4" r:id="rId1" display="https://waterdata.usgs.gov/nwis/uv?site_no=10128500"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/code/paleo_flow/data/sites_monthly.xlsx
+++ b/code/paleo_flow/data/sites_monthly.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="59">
   <si>
     <t xml:space="preserve">orig_order</t>
   </si>
@@ -43,6 +43,9 @@
     <t xml:space="preserve">recon_link</t>
   </si>
   <si>
+    <t xml:space="preserve">pub_link</t>
+  </si>
+  <si>
     <t xml:space="preserve">base_name</t>
   </si>
   <si>
@@ -64,13 +67,22 @@
     <t xml:space="preserve">period</t>
   </si>
   <si>
+    <t xml:space="preserve">begin_month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end_month</t>
+  </si>
+  <si>
     <t xml:space="preserve">adjustment</t>
   </si>
   <si>
     <t xml:space="preserve">reported_cal_r2</t>
   </si>
   <si>
-    <t xml:space="preserve">reported_val_re</t>
+    <t xml:space="preserve">reported_cal_re</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reported_val_ce</t>
   </si>
   <si>
     <t xml:space="preserve">reported_cal_see</t>
@@ -121,6 +133,21 @@
     <t xml:space="preserve">bear2015</t>
   </si>
   <si>
+    <t xml:space="preserve">0.25-0.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.15 – 0.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17-7.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m3/s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K-fold</t>
+  </si>
+  <si>
     <t xml:space="preserve">Logan River at State Dam</t>
   </si>
   <si>
@@ -136,12 +163,24 @@
     <t xml:space="preserve">logan2013</t>
   </si>
   <si>
+    <t xml:space="preserve">0.26-0.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.03 – 0.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.40-5.17</t>
+  </si>
+  <si>
     <t xml:space="preserve">Weber River at Oakley</t>
   </si>
   <si>
     <t xml:space="preserve">Weber River, Utah 576 Year Monthly Streamflow Reconstruction</t>
   </si>
   <si>
+    <t xml:space="preserve">Stagge, J.H., Rosenberg, D.E., DeRose, R.J. 2018. Weber River. PaleoFlow.</t>
+  </si>
+  <si>
     <t xml:space="preserve">USGS 10128500</t>
   </si>
   <si>
@@ -149,16 +188,26 @@
   </si>
   <si>
     <t xml:space="preserve">weber2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.24-0.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.19 - 0.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.22-8.60</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -179,6 +228,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -230,8 +284,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -239,7 +297,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -260,10 +322,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:AA4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -274,10 +336,18 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="50.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="144.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="34.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="62.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="8.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="14.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="62.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="12" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="0" width="14.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="14.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="15.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="16.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="17.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="13.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="10.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -338,7 +408,7 @@
       <c r="S1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="U1" s="0" t="s">
@@ -349,6 +419,18 @@
       </c>
       <c r="W1" s="0" t="s">
         <v>22</v>
+      </c>
+      <c r="X1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -356,40 +438,58 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="0" t="n">
         <v>40.965278</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="N2" s="0" t="n">
         <v>-110.852778</v>
+      </c>
+      <c r="S2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z2" s="0" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -397,86 +497,116 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="K3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="0" t="n">
         <v>41.744444</v>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="N3" s="0" t="n">
         <v>-111.783611</v>
       </c>
+      <c r="S3" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V3" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z3" s="0" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="4" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>40.737222</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>-111.247222</v>
+      </c>
+      <c r="S4" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="V4" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y4" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="2" t="s">
+      <c r="Z4" s="0" t="s">
         <v>41</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="L4" s="0" t="n">
-        <v>40.737222</v>
-      </c>
-      <c r="M4" s="0" t="n">
-        <v>-111.247222</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J4" r:id="rId1" display="https://waterdata.usgs.gov/nwis/uv?site_no=10128500"/>
+    <hyperlink ref="K4" r:id="rId1" display="https://waterdata.usgs.gov/nwis/uv?site_no=10128500"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
